--- a/ax-boot-core/src/main/resources/excel/manual.xlsx
+++ b/ax-boot-core/src/main/resources/excel/manual.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
